--- a/data/System_Money.xlsx
+++ b/data/System_Money.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t xml:space="preserve">Block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month</t>
   </si>
   <si>
     <t xml:space="preserve">Repository</t>
@@ -475,7 +478,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.13"/>
@@ -2007,21 +2010,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="14.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="15.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="8" style="0" width="14.38"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2029,670 +2032,812 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>1400000</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <f aca="false">repository!D2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>500000</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>200000</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>50000</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>50000</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>40000</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="2"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="2"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="2"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="2"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="2"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="2"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="2"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="2"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="2"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
       <c r="B67" s="3"/>
-      <c r="C67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="2"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="2"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
       <c r="B70" s="3"/>
-      <c r="C70" s="2"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6"/>
       <c r="B71" s="3"/>
-      <c r="C71" s="2"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6"/>
       <c r="B72" s="3"/>
-      <c r="C72" s="2"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6"/>
       <c r="B73" s="3"/>
-      <c r="C73" s="2"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6"/>
       <c r="B74" s="3"/>
-      <c r="C74" s="2"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
       <c r="B75" s="3"/>
-      <c r="C75" s="2"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="2"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
       <c r="B77" s="3"/>
-      <c r="C77" s="2"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="2"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
       <c r="B79" s="3"/>
-      <c r="C79" s="2"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
       <c r="B80" s="3"/>
-      <c r="C80" s="2"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="2"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="2"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="2"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="2"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="2"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="2"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="2"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
       <c r="B87" s="3"/>
-      <c r="C87" s="2"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
       <c r="B88" s="3"/>
-      <c r="C88" s="2"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
       <c r="B89" s="3"/>
-      <c r="C89" s="2"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
       <c r="B90" s="3"/>
-      <c r="C90" s="2"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="2"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
       <c r="B92" s="3"/>
-      <c r="C92" s="2"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
       <c r="B93" s="3"/>
-      <c r="C93" s="2"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
       <c r="B94" s="3"/>
-      <c r="C94" s="2"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
       <c r="B95" s="3"/>
-      <c r="C95" s="2"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
       <c r="B96" s="3"/>
-      <c r="C96" s="2"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
       <c r="B97" s="3"/>
-      <c r="C97" s="2"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="2"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
       <c r="B98" s="3"/>
-      <c r="C98" s="2"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
       <c r="B99" s="3"/>
-      <c r="C99" s="2"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="2"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
       <c r="B100" s="3"/>
-      <c r="C100" s="2"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="2"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
       <c r="B101" s="3"/>
-      <c r="C101" s="2"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6"/>
       <c r="B102" s="3"/>
-      <c r="C102" s="2"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6"/>
       <c r="B103" s="3"/>
-      <c r="C103" s="2"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="2"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="2"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="2"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="2"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6"/>
       <c r="B107" s="3"/>
-      <c r="C107" s="2"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6"/>
       <c r="B108" s="3"/>
-      <c r="C108" s="2"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="2"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
       <c r="B109" s="3"/>
-      <c r="C109" s="2"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="2"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
       <c r="B110" s="3"/>
-      <c r="C110" s="2"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
       <c r="B111" s="3"/>
-      <c r="C111" s="2"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
       <c r="B112" s="3"/>
-      <c r="C112" s="2"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="2"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
       <c r="B113" s="3"/>
-      <c r="C113" s="2"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="2"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6"/>
       <c r="B114" s="3"/>
-      <c r="C114" s="2"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="2"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6"/>
       <c r="B115" s="3"/>
-      <c r="C115" s="2"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="6"/>
       <c r="B116" s="3"/>
-      <c r="C116" s="2"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="2"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="6"/>
       <c r="B117" s="3"/>
-      <c r="C117" s="2"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="2"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="6"/>
       <c r="B118" s="3"/>
-      <c r="C118" s="2"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="2"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="6"/>
       <c r="B119" s="3"/>
-      <c r="C119" s="2"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="2"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="6"/>
       <c r="B120" s="3"/>
-      <c r="C120" s="2"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3602,7 +3747,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.38"/>
@@ -3630,10 +3775,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>1400000</v>
@@ -3648,10 +3793,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>500000</v>
@@ -3662,10 +3807,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="7" t="n">
         <v>100000</v>
@@ -3676,44 +3821,44 @@
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>30000</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>10000</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>10000</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5452,7 +5597,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="7.63"/>
@@ -5461,52 +5606,52 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6563,23 +6708,23 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="8" style="0" width="14.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -7128,7 +7273,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="19" t="n">
         <f aca="false">SUM(B2:B31)</f>
